--- a/Test Data Driven/AI-Generated/Common/markTestResultAsPassed.xlsx
+++ b/Test Data Driven/AI-Generated/Common/markTestResultAsPassed.xlsx
@@ -448,9 +448,9 @@
   <cols>
     <col width="37" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="49" customWidth="1" min="4" max="4"/>
-    <col width="51" customWidth="1" min="5" max="5"/>
+    <col width="49" customWidth="1" min="3" max="3"/>
+    <col width="51" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
     <col width="80" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -467,22 +467,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_class_2</t>
+          <t>button_testResultActions_internalRoleButtonName</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_internalRoleButtonName</t>
+          <t>button_testResultActions_internalRoleButtonName_1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_internalRoleButtonName_1</t>
+          <t>button_testResultDetails_class</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_internalRoleButtonName_2</t>
+          <t>button_testResultDetails_internalRoleButtonName</t>
         </is>
       </c>
     </row>
@@ -499,17 +499,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Failed Automations - Apply to</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Failed Portal - Login with</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>"]:nth-child(3) [class="css-1yjo05o</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Failed Automations - Apply to</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Failed Portal - Login with</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/Test Data Driven/AI-Generated/Common/markTestResultAsPassed.xlsx
+++ b/Test Data Driven/AI-Generated/Common/markTestResultAsPassed.xlsx
@@ -448,41 +448,41 @@
   <cols>
     <col width="37" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="49" customWidth="1" min="3" max="3"/>
-    <col width="51" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="49" customWidth="1" min="4" max="4"/>
+    <col width="51" customWidth="1" min="5" max="5"/>
     <col width="80" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>button_failedTestActions_class</t>
+          <t>button_testResultDetails_class</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>button_failedTestActions_class_1</t>
+          <t>button_testResultDetails_class_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>button_failedTestActions_internalRoleButtonName</t>
+          <t>button_testResultDetails_class_2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>button_failedTestActions_internalRoleButtonName_1</t>
+          <t>button_testResultDetails_internalRoleButtonName</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultDetails_class</t>
+          <t>button_testResultDetails_internalRoleButtonName_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultDetails_internalRoleButtonName</t>
+          <t>button_testResultDetails_internalRoleButtonName_2</t>
         </is>
       </c>
     </row>
@@ -499,17 +499,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>"]:nth-child(3) [class="css-1yjo05o</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Failed Automations - Apply to</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Failed Portal - Login with</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>"]:nth-child(3) [class="css-1yjo05o</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/Test Data Driven/AI-Generated/Common/markTestResultAsPassed.xlsx
+++ b/Test Data Driven/AI-Generated/Common/markTestResultAsPassed.xlsx
@@ -448,41 +448,41 @@
   <cols>
     <col width="37" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="49" customWidth="1" min="4" max="4"/>
-    <col width="51" customWidth="1" min="5" max="5"/>
+    <col width="49" customWidth="1" min="3" max="3"/>
+    <col width="51" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
     <col width="80" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>button_testResultActions_class</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>button_testResultActions_class_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>button_testResultActions_internalRoleButtonName</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>button_testResultActions_internalRoleButtonName_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>button_testResultDetails_class</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>button_testResultDetails_class_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>button_testResultDetails_class_2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>button_testResultDetails_internalRoleButtonName</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>button_testResultDetails_internalRoleButtonName_1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>button_testResultDetails_internalRoleButtonName_2</t>
         </is>
       </c>
     </row>
@@ -499,17 +499,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Failed Automations - Apply to</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Failed Portal - Login with</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>"]:nth-child(3) [class="css-1yjo05o</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Failed Automations - Apply to</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Failed Portal - Login with</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/Test Data Driven/AI-Generated/Common/markTestResultAsPassed.xlsx
+++ b/Test Data Driven/AI-Generated/Common/markTestResultAsPassed.xlsx
@@ -448,9 +448,9 @@
   <cols>
     <col width="37" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="49" customWidth="1" min="3" max="3"/>
-    <col width="51" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="49" customWidth="1" min="4" max="4"/>
+    <col width="51" customWidth="1" min="5" max="5"/>
     <col width="80" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -467,22 +467,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>button_testResultActions_class_2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>button_testResultActions_internalRoleButtonName</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>button_testResultActions_internalRoleButtonName_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>button_testResultDetails_class</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultDetails_internalRoleButtonName</t>
+          <t>button_testResultActions_internalRoleButtonName_2</t>
         </is>
       </c>
     </row>
@@ -499,17 +499,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>"]:nth-child(3) [class="css-1yjo05o</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Failed Automations - Apply to</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Failed Portal - Login with</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>"]:nth-child(3) [class="css-1yjo05o</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/Test Data Driven/AI-Generated/Common/markTestResultAsPassed.xlsx
+++ b/Test Data Driven/AI-Generated/Common/markTestResultAsPassed.xlsx
@@ -457,32 +457,32 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_class</t>
+          <t>button_testResultDetails_class</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_class_1</t>
+          <t>button_testResultDetails_class_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_class_2</t>
+          <t>button_testResultDetails_class_2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_internalRoleButtonName</t>
+          <t>button_testResultDetails_internalRoleButtonName</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_internalRoleButtonName_1</t>
+          <t>button_testResultDetails_internalRoleButtonName_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>button_testResultActions_internalRoleButtonName_2</t>
+          <t>button_testResultDetails_internalRoleButtonName_2</t>
         </is>
       </c>
     </row>
